--- a/calculation.xlsx
+++ b/calculation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanKralj\Desktop\Konferencije\AMSTA\2023\code\knn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA269696-FE7D-4A4B-AB56-07A5EFBED829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF0029A-91E4-45E4-9C8E-CF1205F1E130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>a</t>
   </si>
@@ -1092,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24A893C-2ACC-4C84-9064-667902F1AAAD}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1138,6 +1138,34 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9.1237993240356392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8.3822830253392002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1">
+        <f>ABS(((B8-B9)/B8))</f>
+        <v>8.127275407548655E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
